--- a/publipostage2/04c3yce28/liste_essais_cliniques_identifies_04c3yce28.xlsx
+++ b/publipostage2/04c3yce28/liste_essais_cliniques_identifies_04c3yce28.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>status_label</t>
+          <t>statut_label</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">

--- a/publipostage2/04c3yce28/liste_essais_cliniques_identifies_04c3yce28.xlsx
+++ b/publipostage2/04c3yce28/liste_essais_cliniques_identifies_04c3yce28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,50 +446,55 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>statut_name</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>NCTId</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>eudraCT</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>CTIS</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>completion_year</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>clinical_trial_title</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>acronym</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>results_1y</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>results_3y</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>results</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>intervention_type</t>
         </is>
@@ -508,32 +513,37 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>NCT01078129</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>Efficacy of Hierarchized Computer-assisted Cognitive Remediation Therapy in Schizophrenia</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="b">
         <v>0</v>
       </c>
       <c r="K2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L2" t="b">
         <v>1</v>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>BEHAVIORAL</t>
         </is>
@@ -552,32 +562,37 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>NCT01288183</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>Behavioral Impact of Prefrontal Anodal Transcranial Direct Current Stimulation on Smokers</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="b">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="b">
         <v>0</v>
       </c>
       <c r="K3" t="b">
         <v>0</v>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="L3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M3" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -596,32 +611,37 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>NCT02110771</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>Efficacy Study of GAÏA Program Cognitive Remediation of Facial Affects Processing in Schizophrenia</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="b">
         <v>0</v>
       </c>
       <c r="K4" t="b">
         <v>0</v>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="L4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M4" t="inlineStr">
         <is>
           <t>BEHAVIORAL</t>
         </is>
@@ -640,32 +660,37 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>NCT00875498</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>Intermittent Theta Burst Stimulation (iTBS) for the Treatment of Negative Symptoms in Schizophrenia</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="b">
         <v>0</v>
       </c>
       <c r="K5" t="b">
         <v>0</v>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="L5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M5" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -684,36 +709,41 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>NCT02402101</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>Effect of the Transcranial Direct Current Stimulation on the Dopaminergic</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>DOPA-STIM</t>
         </is>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
-      </c>
       <c r="J6" t="b">
         <v>0</v>
       </c>
       <c r="K6" t="b">
         <v>0</v>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="L6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -732,32 +762,37 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>NCT00870909</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>Anodal &amp; Cathodal tDCS for Treatment of Resistant Auditory Hallucinations in Schizophrenia</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="b">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="b">
         <v>0</v>
       </c>
       <c r="K7" t="b">
+        <v>0</v>
+      </c>
+      <c r="L7" t="b">
         <v>1</v>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -776,36 +811,41 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>NCT02717260</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>Inhibition Control Modulation by Transcranial Random Noise Stimulation (tRNS ) on the Prefrontal Cortex Measured by Change in Go no Test</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>inhibistim</t>
         </is>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
-      </c>
       <c r="J8" t="b">
         <v>0</v>
       </c>
       <c r="K8" t="b">
         <v>0</v>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="L8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M8" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -824,36 +864,41 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>NCT02438163</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>Study of Neuroplasticity on Depressed Patients Versus Healthy Subjects : Modulation of the MEP Size Induced by Theta Burst Stimulation</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>DEPLAS</t>
         </is>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
-      </c>
       <c r="J9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" t="b">
         <v>1</v>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="L9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -872,36 +917,41 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>NCT01891929</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>Specific Cognitive Remediation for Schizophrenia (RECOS) and Sheltered Employment: a Multicentre Controlled Randomized Trial.</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>RemedRehab</t>
         </is>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
-      </c>
       <c r="J10" t="b">
         <v>0</v>
       </c>
       <c r="K10" t="b">
         <v>0</v>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="L10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M10" t="inlineStr">
         <is>
           <t>BEHAVIORAL</t>
         </is>
@@ -920,32 +970,37 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>NCT02734927</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>Motivation and Executive Control in Schizophrenia</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="b">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="b">
         <v>0</v>
       </c>
       <c r="K11" t="b">
         <v>0</v>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="L11" t="b">
+        <v>0</v>
+      </c>
+      <c r="M11" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -964,36 +1019,41 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>NCT02667834</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>Efficiency of the French Translation Program:Social Cognition and Interactive Training (SCIT) of Negative Symptoms in Schizophrenia</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>SCIT-VF</t>
         </is>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
-      </c>
       <c r="J12" t="b">
         <v>0</v>
       </c>
       <c r="K12" t="b">
         <v>0</v>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="L12" t="b">
+        <v>0</v>
+      </c>
+      <c r="M12" t="inlineStr">
         <is>
           <t>BEHAVIORAL</t>
         </is>
@@ -1012,36 +1072,41 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>NCT02949453</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>ACCeptation and Qualitative Evaluation of Phone-delivered Intervention To Prevent Suicide Reattempt</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>ACCEPT-S</t>
         </is>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
-      </c>
       <c r="J13" t="b">
         <v>0</v>
       </c>
       <c r="K13" t="b">
         <v>0</v>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="L13" t="b">
+        <v>0</v>
+      </c>
+      <c r="M13" t="inlineStr">
         <is>
           <t>BEHAVIORAL</t>
         </is>
@@ -1060,36 +1125,41 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>NCT03492970</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>Characterization of Behavioral Disorders and 24 H-melatonin Level in Adults With Smith Magenis Syndrome</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>SMS-adults</t>
         </is>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
       <c r="J14" t="b">
         <v>0</v>
       </c>
       <c r="K14" t="b">
         <v>0</v>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="L14" t="b">
+        <v>0</v>
+      </c>
+      <c r="M14" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -1108,36 +1178,41 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>NCT03028545</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>Representations, Strategies and Identity Redefinition in the Recovery Process: Exploratory Study</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>EPR</t>
         </is>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
-      </c>
       <c r="J15" t="b">
         <v>0</v>
       </c>
       <c r="K15" t="b">
         <v>0</v>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="L15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M15" t="inlineStr">
         <is>
           <t>BEHAVIORAL</t>
         </is>
@@ -1156,36 +1231,41 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>NCT03688516</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>Effects of Emotion on Episodic Memory in Typically Developing Children and Children With Williams-Beuren Syndrome</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>EEM-TAdev</t>
         </is>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
-      </c>
       <c r="J16" t="b">
         <v>0</v>
       </c>
       <c r="K16" t="b">
         <v>0</v>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="L16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M16" t="inlineStr">
         <is>
           <t>BEHAVIORAL</t>
         </is>
@@ -1204,36 +1284,41 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>NCT04141540</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>Translational 22q11.2:"Molecular Variants Associated With Schizophrenia: Differential Analysis of Monozygotic Twins With Variable Phenotypic 22q11.2 Microdeletional Syndrom"</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>CSRK05</t>
         </is>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
-      </c>
       <c r="J17" t="b">
         <v>0</v>
       </c>
       <c r="K17" t="b">
         <v>0</v>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="L17" t="b">
+        <v>0</v>
+      </c>
+      <c r="M17" t="inlineStr">
         <is>
           <t>GENETIC</t>
         </is>
@@ -1252,36 +1337,41 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>NCT02793258</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>Impact of Transcranial Direct Current Stimulation on Emotional Processing in Major Depression</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>EmoStim</t>
         </is>
       </c>
-      <c r="I18" t="b">
-        <v>0</v>
-      </c>
       <c r="J18" t="b">
         <v>0</v>
       </c>
       <c r="K18" t="b">
         <v>0</v>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="L18" t="b">
+        <v>0</v>
+      </c>
+      <c r="M18" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -1300,36 +1390,41 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>NCT02887794</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>Basic Auditory Processing and Acoustico-verbal Hallucinations: a Pathophysiological Study</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>AUDISCHIZ</t>
         </is>
       </c>
-      <c r="I19" t="b">
-        <v>0</v>
-      </c>
       <c r="J19" t="b">
         <v>0</v>
       </c>
       <c r="K19" t="b">
         <v>0</v>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="L19" t="b">
+        <v>0</v>
+      </c>
+      <c r="M19" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1348,36 +1443,41 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>NCT04147988</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>Describing, Detecting and Orienting Adults Without Intellectual Disability Asking for an Autism Spectrum Disorder Diagnosis</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>ASSORT</t>
         </is>
       </c>
-      <c r="I20" t="b">
-        <v>0</v>
-      </c>
       <c r="J20" t="b">
         <v>0</v>
       </c>
       <c r="K20" t="b">
         <v>0</v>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="L20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M20" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1396,28 +1496,30 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>NCT02608333</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>Impact of Early Intervention on the Global Development of Children With Autism Spectrum Disorder in a European French-speaking Population Dr Marie-Maude GEOFFRAY Le Vinatier Hospital</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>IDEA</t>
         </is>
-      </c>
-      <c r="I21" t="b">
-        <v>1</v>
       </c>
       <c r="J21" t="b">
         <v>1</v>
@@ -1425,7 +1527,10 @@
       <c r="K21" t="b">
         <v>1</v>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="L21" t="b">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr">
         <is>
           <t>BEHAVIORAL</t>
         </is>
@@ -1444,36 +1549,41 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
           <t>NCT02976077</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr">
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>Preliminary Validation of the RC2S+ Therapy in Schizophrenia</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>RC2S+</t>
         </is>
       </c>
-      <c r="I22" t="b">
-        <v>0</v>
-      </c>
       <c r="J22" t="b">
         <v>0</v>
       </c>
       <c r="K22" t="b">
         <v>0</v>
       </c>
-      <c r="L22" t="inlineStr">
+      <c r="L22" t="b">
+        <v>0</v>
+      </c>
+      <c r="M22" t="inlineStr">
         <is>
           <t>BEHAVIORAL</t>
         </is>
@@ -1492,36 +1602,41 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t>NCT02660775</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr">
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>Social Cognitive Assessment in Psychiatry - Validation of a New Battery: ClaCoS</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>(ClaCoS)</t>
         </is>
       </c>
-      <c r="I23" t="b">
-        <v>0</v>
-      </c>
       <c r="J23" t="b">
         <v>0</v>
       </c>
       <c r="K23" t="b">
         <v>0</v>
       </c>
-      <c r="L23" t="inlineStr">
+      <c r="L23" t="b">
+        <v>0</v>
+      </c>
+      <c r="M23" t="inlineStr">
         <is>
           <t>BEHAVIORAL</t>
         </is>
@@ -1540,28 +1655,30 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
           <t>NCT03538197</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr">
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>SURAYA : Suicide Re Attempts in Young Adults After First Suicide Attempt : Socio-demographic, Clinical and Biological Correlates</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>SURAYA</t>
         </is>
-      </c>
-      <c r="I24" t="b">
-        <v>1</v>
       </c>
       <c r="J24" t="b">
         <v>1</v>
@@ -1569,7 +1686,10 @@
       <c r="K24" t="b">
         <v>1</v>
       </c>
-      <c r="L24" t="inlineStr">
+      <c r="L24" t="b">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1588,36 +1708,41 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
           <t>NCT05213442</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr">
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>Liver Status in Psychiatric Inpatients</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>LIVERSPIN</t>
         </is>
       </c>
-      <c r="I25" t="b">
-        <v>0</v>
-      </c>
       <c r="J25" t="b">
         <v>0</v>
       </c>
       <c r="K25" t="b">
         <v>0</v>
       </c>
-      <c r="L25" t="inlineStr">
+      <c r="L25" t="b">
+        <v>0</v>
+      </c>
+      <c r="M25" t="inlineStr">
         <is>
           <t>DIAGNOSTIC_TEST</t>
         </is>
@@ -1636,36 +1761,41 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
           <t>NCT04245306</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr">
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>Pilot Evaluation of a New Computerized Test for Pragmatic Inferences in Children with Autism Spectrum Disorder Aged 8-12 Years Old</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>TIPI</t>
         </is>
       </c>
-      <c r="I26" t="b">
-        <v>0</v>
-      </c>
       <c r="J26" t="b">
         <v>0</v>
       </c>
       <c r="K26" t="b">
         <v>0</v>
       </c>
-      <c r="L26" t="inlineStr">
+      <c r="L26" t="b">
+        <v>0</v>
+      </c>
+      <c r="M26" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1684,36 +1814,41 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
           <t>NCT03217357</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr">
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>Effects of Transcranial Direct Current Stimulation on Stress Reactivity and Decision Making in Unaffected Siblings of Patients With Schizophrenia</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>3S</t>
         </is>
       </c>
-      <c r="I27" t="b">
-        <v>0</v>
-      </c>
       <c r="J27" t="b">
         <v>0</v>
       </c>
       <c r="K27" t="b">
         <v>0</v>
       </c>
-      <c r="L27" t="inlineStr">
+      <c r="L27" t="b">
+        <v>0</v>
+      </c>
+      <c r="M27" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>

--- a/publipostage2/04c3yce28/liste_essais_cliniques_identifies_04c3yce28.xlsx
+++ b/publipostage2/04c3yce28/liste_essais_cliniques_identifies_04c3yce28.xlsx
@@ -55,22 +55,22 @@
     <t>intervention_type</t>
   </si>
   <si>
-    <t>🟥</t>
-  </si>
-  <si>
-    <t>⬛</t>
-  </si>
-  <si>
-    <t>🟧</t>
-  </si>
-  <si>
-    <t>🟩</t>
+    <t>📕</t>
+  </si>
+  <si>
+    <t>📘</t>
+  </si>
+  <si>
+    <t>📙</t>
+  </si>
+  <si>
+    <t>📗</t>
   </si>
   <si>
     <t>rouge</t>
   </si>
   <si>
-    <t>noir</t>
+    <t>bleu</t>
   </si>
   <si>
     <t>orange</t>

--- a/publipostage2/04c3yce28/liste_essais_cliniques_identifies_04c3yce28.xlsx
+++ b/publipostage2/04c3yce28/liste_essais_cliniques_identifies_04c3yce28.xlsx
@@ -55,16 +55,16 @@
     <t>intervention_type</t>
   </si>
   <si>
-    <t>📕</t>
-  </si>
-  <si>
-    <t>📘</t>
-  </si>
-  <si>
-    <t>📙</t>
-  </si>
-  <si>
-    <t>📗</t>
+    <t>-3</t>
+  </si>
+  <si>
+    <t>⚠️</t>
+  </si>
+  <si>
+    <t>+3</t>
+  </si>
+  <si>
+    <t>✅</t>
   </si>
   <si>
     <t>rouge</t>

--- a/publipostage2/04c3yce28/liste_essais_cliniques_identifies_04c3yce28.xlsx
+++ b/publipostage2/04c3yce28/liste_essais_cliniques_identifies_04c3yce28.xlsx
@@ -70,7 +70,7 @@
     <t>rouge</t>
   </si>
   <si>
-    <t>bleu</t>
+    <t>noir</t>
   </si>
   <si>
     <t>orange</t>
@@ -79,16 +79,16 @@
     <t>vert</t>
   </si>
   <si>
-    <t>résultat et / ou publication posté</t>
-  </si>
-  <si>
-    <t>pas de résultat ni de publication</t>
-  </si>
-  <si>
-    <t>résultat et / ou publication posté dans les 36 mois</t>
-  </si>
-  <si>
-    <t>résultat et / ou publication posté dans les 12 mois</t>
+    <t>résultat postés ou publiés</t>
+  </si>
+  <si>
+    <t>pas de résultat postés ni publiés</t>
+  </si>
+  <si>
+    <t>résultat postés ou publiés dans les 36 mois</t>
+  </si>
+  <si>
+    <t>résultat postés ou publiés dans les 12 mois</t>
   </si>
   <si>
     <t>NCT01078129</t>

--- a/publipostage2/04c3yce28/liste_essais_cliniques_identifies_04c3yce28.xlsx
+++ b/publipostage2/04c3yce28/liste_essais_cliniques_identifies_04c3yce28.xlsx
@@ -73,21 +73,21 @@
     <t>NCT01288183</t>
   </si>
   <si>
+    <t>NCT00875498</t>
+  </si>
+  <si>
     <t>NCT02110771</t>
   </si>
   <si>
-    <t>NCT00875498</t>
-  </si>
-  <si>
     <t>NCT02402101</t>
   </si>
   <si>
+    <t>NCT02717260</t>
+  </si>
+  <si>
     <t>NCT00870909</t>
   </si>
   <si>
-    <t>NCT02717260</t>
-  </si>
-  <si>
     <t>NCT02438163</t>
   </si>
   <si>
@@ -100,39 +100,39 @@
     <t>NCT02667834</t>
   </si>
   <si>
+    <t>NCT03492970</t>
+  </si>
+  <si>
     <t>NCT02949453</t>
   </si>
   <si>
-    <t>NCT03492970</t>
+    <t>NCT04141540</t>
+  </si>
+  <si>
+    <t>NCT03688516</t>
   </si>
   <si>
     <t>NCT03028545</t>
   </si>
   <si>
-    <t>NCT03688516</t>
-  </si>
-  <si>
-    <t>NCT04141540</t>
+    <t>NCT02887794</t>
+  </si>
+  <si>
+    <t>NCT02608333</t>
+  </si>
+  <si>
+    <t>NCT02660775</t>
+  </si>
+  <si>
+    <t>NCT02976077</t>
+  </si>
+  <si>
+    <t>NCT04147988</t>
   </si>
   <si>
     <t>NCT02793258</t>
   </si>
   <si>
-    <t>NCT02887794</t>
-  </si>
-  <si>
-    <t>NCT04147988</t>
-  </si>
-  <si>
-    <t>NCT02608333</t>
-  </si>
-  <si>
-    <t>NCT02976077</t>
-  </si>
-  <si>
-    <t>NCT02660775</t>
-  </si>
-  <si>
     <t>NCT03538197</t>
   </si>
   <si>
@@ -181,21 +181,21 @@
     <t>Behavioral Impact of Prefrontal Anodal Transcranial Direct Current Stimulation on Smokers</t>
   </si>
   <si>
+    <t>Intermittent Theta Burst Stimulation (iTBS) for the Treatment of Negative Symptoms in Schizophrenia</t>
+  </si>
+  <si>
     <t>Efficacy Study of GAÏA Program Cognitive Remediation of Facial Affects Processing in Schizophrenia</t>
   </si>
   <si>
-    <t>Intermittent Theta Burst Stimulation (iTBS) for the Treatment of Negative Symptoms in Schizophrenia</t>
-  </si>
-  <si>
     <t>Effect of the Transcranial Direct Current Stimulation on the Dopaminergic</t>
   </si>
   <si>
+    <t>Inhibition Control Modulation by Transcranial Random Noise Stimulation (tRNS ) on the Prefrontal Cortex Measured by Change in Go no Test</t>
+  </si>
+  <si>
     <t>Anodal &amp; Cathodal tDCS for Treatment of Resistant Auditory Hallucinations in Schizophrenia</t>
   </si>
   <si>
-    <t>Inhibition Control Modulation by Transcranial Random Noise Stimulation (tRNS ) on the Prefrontal Cortex Measured by Change in Go no Test</t>
-  </si>
-  <si>
     <t>Study of Neuroplasticity on Depressed Patients Versus Healthy Subjects : Modulation of the MEP Size Induced by Theta Burst Stimulation</t>
   </si>
   <si>
@@ -208,39 +208,39 @@
     <t>Efficiency of the French Translation Program:Social Cognition and Interactive Training (SCIT) of Negative Symptoms in Schizophrenia</t>
   </si>
   <si>
+    <t>Characterization of Behavioral Disorders and 24 H-melatonin Level in Adults With Smith Magenis Syndrome</t>
+  </si>
+  <si>
     <t>ACCeptation and Qualitative Evaluation of Phone-delivered Intervention To Prevent Suicide Reattempt</t>
   </si>
   <si>
-    <t>Characterization of Behavioral Disorders and 24 H-melatonin Level in Adults With Smith Magenis Syndrome</t>
+    <t>Translational 22q11.2:"Molecular Variants Associated With Schizophrenia: Differential Analysis of Monozygotic Twins With Variable Phenotypic 22q11.2 Microdeletional Syndrom"</t>
+  </si>
+  <si>
+    <t>Effects of Emotion on Episodic Memory in Typically Developing Children and Children With Williams-Beuren Syndrome</t>
   </si>
   <si>
     <t>Representations, Strategies and Identity Redefinition in the Recovery Process: Exploratory Study</t>
   </si>
   <si>
-    <t>Effects of Emotion on Episodic Memory in Typically Developing Children and Children With Williams-Beuren Syndrome</t>
-  </si>
-  <si>
-    <t>Translational 22q11.2:"Molecular Variants Associated With Schizophrenia: Differential Analysis of Monozygotic Twins With Variable Phenotypic 22q11.2 Microdeletional Syndrom"</t>
+    <t>Basic Auditory Processing and Acoustico-verbal Hallucinations: a Pathophysiological Study</t>
+  </si>
+  <si>
+    <t>Impact of Early Intervention on the Global Development of Children With Autism Spectrum Disorder in a European French-speaking Population Dr Marie-Maude GEOFFRAY Le Vinatier Hospital</t>
+  </si>
+  <si>
+    <t>Social Cognitive Assessment in Psychiatry - Validation of a New Battery: ClaCoS</t>
+  </si>
+  <si>
+    <t>Preliminary Validation of the RC2S+ Therapy in Schizophrenia</t>
+  </si>
+  <si>
+    <t>Describing, Detecting and Orienting Adults Without Intellectual Disability Asking for an Autism Spectrum Disorder Diagnosis</t>
   </si>
   <si>
     <t>Impact of Transcranial Direct Current Stimulation on Emotional Processing in Major Depression</t>
   </si>
   <si>
-    <t>Basic Auditory Processing and Acoustico-verbal Hallucinations: a Pathophysiological Study</t>
-  </si>
-  <si>
-    <t>Describing, Detecting and Orienting Adults Without Intellectual Disability Asking for an Autism Spectrum Disorder Diagnosis</t>
-  </si>
-  <si>
-    <t>Impact of Early Intervention on the Global Development of Children With Autism Spectrum Disorder in a European French-speaking Population Dr Marie-Maude GEOFFRAY Le Vinatier Hospital</t>
-  </si>
-  <si>
-    <t>Preliminary Validation of the RC2S+ Therapy in Schizophrenia</t>
-  </si>
-  <si>
-    <t>Social Cognitive Assessment in Psychiatry - Validation of a New Battery: ClaCoS</t>
-  </si>
-  <si>
     <t>SURAYA : Suicide Re Attempts in Young Adults After First Suicide Attempt : Socio-demographic, Clinical and Biological Correlates</t>
   </si>
   <si>
@@ -268,37 +268,37 @@
     <t>SCIT-VF</t>
   </si>
   <si>
+    <t>SMS-adults</t>
+  </si>
+  <si>
     <t>ACCEPT-S</t>
   </si>
   <si>
-    <t>SMS-adults</t>
+    <t>CSRK05</t>
+  </si>
+  <si>
+    <t>EEM-TAdev</t>
   </si>
   <si>
     <t>EPR</t>
   </si>
   <si>
-    <t>EEM-TAdev</t>
-  </si>
-  <si>
-    <t>CSRK05</t>
+    <t>AUDISCHIZ</t>
+  </si>
+  <si>
+    <t>IDEA</t>
+  </si>
+  <si>
+    <t>(ClaCoS)</t>
+  </si>
+  <si>
+    <t>RC2S+</t>
+  </si>
+  <si>
+    <t>ASSORT</t>
   </si>
   <si>
     <t>EmoStim</t>
-  </si>
-  <si>
-    <t>AUDISCHIZ</t>
-  </si>
-  <si>
-    <t>ASSORT</t>
-  </si>
-  <si>
-    <t>IDEA</t>
-  </si>
-  <si>
-    <t>RC2S+</t>
-  </si>
-  <si>
-    <t>(ClaCoS)</t>
   </si>
   <si>
     <t>SURAYA</t>
@@ -781,7 +781,7 @@
         <v>55</v>
       </c>
       <c r="I4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -801,7 +801,7 @@
         <v>56</v>
       </c>
       <c r="I5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -829,10 +829,10 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
         <v>22</v>
@@ -843,16 +843,19 @@
       <c r="G7" t="s">
         <v>58</v>
       </c>
+      <c r="H7" t="s">
+        <v>80</v>
+      </c>
       <c r="I7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
         <v>23</v>
@@ -863,11 +866,8 @@
       <c r="G8" t="s">
         <v>59</v>
       </c>
-      <c r="H8" t="s">
-        <v>80</v>
-      </c>
       <c r="I8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -979,7 +979,7 @@
         <v>84</v>
       </c>
       <c r="I13" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1002,7 +1002,7 @@
         <v>85</v>
       </c>
       <c r="I14" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1025,7 +1025,7 @@
         <v>86</v>
       </c>
       <c r="I15" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1071,7 +1071,7 @@
         <v>88</v>
       </c>
       <c r="I17" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1094,15 +1094,15 @@
         <v>89</v>
       </c>
       <c r="I18" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C19" t="s">
         <v>34</v>
@@ -1117,7 +1117,7 @@
         <v>90</v>
       </c>
       <c r="I19" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1140,15 +1140,15 @@
         <v>91</v>
       </c>
       <c r="I20" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C21" t="s">
         <v>36</v>
@@ -1186,7 +1186,7 @@
         <v>93</v>
       </c>
       <c r="I22" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1209,7 +1209,7 @@
         <v>94</v>
       </c>
       <c r="I23" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:9">

--- a/publipostage2/04c3yce28/liste_essais_cliniques_identifies_04c3yce28.xlsx
+++ b/publipostage2/04c3yce28/liste_essais_cliniques_identifies_04c3yce28.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="116">
   <si>
     <t>statut</t>
   </si>
@@ -55,16 +55,16 @@
     <t>1</t>
   </si>
   <si>
-    <t>3: résultats postés ou publiés après les 36 mois</t>
-  </si>
-  <si>
-    <t>4: pas de résultats postés ni publiés</t>
-  </si>
-  <si>
-    <t>2: résultats postés ou publiés entre 12 et 36 mois</t>
-  </si>
-  <si>
-    <t>1: résultats postés ou publiés dans les 12 mois</t>
+    <t>3 : résultats postés ou publiés après les 36 mois</t>
+  </si>
+  <si>
+    <t>4 : pas de résultats postés ni publiés</t>
+  </si>
+  <si>
+    <t>2 : résultats postés ou publiés entre 12 et 36 mois</t>
+  </si>
+  <si>
+    <t>1 : résultats postés ou publiés dans les 12 mois</t>
   </si>
   <si>
     <t>NCT01078129</t>
@@ -73,19 +73,22 @@
     <t>NCT01288183</t>
   </si>
   <si>
+    <t>NCT02110771</t>
+  </si>
+  <si>
     <t>NCT00875498</t>
   </si>
   <si>
-    <t>NCT02110771</t>
+    <t>NCT00870909</t>
+  </si>
+  <si>
+    <t>NCT02717260</t>
   </si>
   <si>
     <t>NCT02402101</t>
   </si>
   <si>
-    <t>NCT02717260</t>
-  </si>
-  <si>
-    <t>NCT00870909</t>
+    <t>NCT02734927</t>
   </si>
   <si>
     <t>NCT02438163</t>
@@ -94,7 +97,7 @@
     <t>NCT01891929</t>
   </si>
   <si>
-    <t>NCT02734927</t>
+    <t>NCT02949453</t>
   </si>
   <si>
     <t>NCT02667834</t>
@@ -103,48 +106,54 @@
     <t>NCT03492970</t>
   </si>
   <si>
-    <t>NCT02949453</t>
+    <t>NCT03688516</t>
   </si>
   <si>
     <t>NCT04141540</t>
   </si>
   <si>
-    <t>NCT03688516</t>
-  </si>
-  <si>
     <t>NCT03028545</t>
   </si>
   <si>
+    <t>NCT02793258</t>
+  </si>
+  <si>
     <t>NCT02887794</t>
   </si>
   <si>
     <t>NCT02608333</t>
   </si>
   <si>
+    <t>NCT02976077</t>
+  </si>
+  <si>
     <t>NCT02660775</t>
   </si>
   <si>
-    <t>NCT02976077</t>
-  </si>
-  <si>
     <t>NCT04147988</t>
   </si>
   <si>
-    <t>NCT02793258</t>
-  </si>
-  <si>
     <t>NCT03538197</t>
   </si>
   <si>
     <t>NCT05213442</t>
   </si>
   <si>
+    <t>NCT03924973</t>
+  </si>
+  <si>
     <t>NCT04245306</t>
   </si>
   <si>
     <t>NCT03217357</t>
   </si>
   <si>
+    <t>NCT05825677</t>
+  </si>
+  <si>
+    <t>NCT04274127</t>
+  </si>
+  <si>
     <t>2010</t>
   </si>
   <si>
@@ -175,25 +184,31 @@
     <t>2023</t>
   </si>
   <si>
+    <t>2024</t>
+  </si>
+  <si>
     <t>Efficacy of Hierarchized Computer-assisted Cognitive Remediation Therapy in Schizophrenia</t>
   </si>
   <si>
     <t>Behavioral Impact of Prefrontal Anodal Transcranial Direct Current Stimulation on Smokers</t>
   </si>
   <si>
+    <t>Efficacy Study of GAÏA Program Cognitive Remediation of Facial Affects Processing in Schizophrenia</t>
+  </si>
+  <si>
     <t>Intermittent Theta Burst Stimulation (iTBS) for the Treatment of Negative Symptoms in Schizophrenia</t>
   </si>
   <si>
-    <t>Efficacy Study of GAÏA Program Cognitive Remediation of Facial Affects Processing in Schizophrenia</t>
+    <t>Anodal &amp; Cathodal tDCS for Treatment of Resistant Auditory Hallucinations in Schizophrenia</t>
+  </si>
+  <si>
+    <t>Inhibition Control Modulation by Transcranial Random Noise Stimulation (tRNS ) on the Prefrontal Cortex Measured by Change in Go no Test</t>
   </si>
   <si>
     <t>Effect of the Transcranial Direct Current Stimulation on the Dopaminergic</t>
   </si>
   <si>
-    <t>Inhibition Control Modulation by Transcranial Random Noise Stimulation (tRNS ) on the Prefrontal Cortex Measured by Change in Go no Test</t>
-  </si>
-  <si>
-    <t>Anodal &amp; Cathodal tDCS for Treatment of Resistant Auditory Hallucinations in Schizophrenia</t>
+    <t>Motivation and Executive Control in Schizophrenia</t>
   </si>
   <si>
     <t>Study of Neuroplasticity on Depressed Patients Versus Healthy Subjects : Modulation of the MEP Size Induced by Theta Burst Stimulation</t>
@@ -202,7 +217,7 @@
     <t>Specific Cognitive Remediation for Schizophrenia (RECOS) and Sheltered Employment: a Multicentre Controlled Randomized Trial.</t>
   </si>
   <si>
-    <t>Motivation and Executive Control in Schizophrenia</t>
+    <t>ACCeptation and Qualitative Evaluation of Phone-delivered Intervention To Prevent Suicide Reattempt</t>
   </si>
   <si>
     <t>Efficiency of the French Translation Program:Social Cognition and Interactive Training (SCIT) of Negative Symptoms in Schizophrenia</t>
@@ -211,106 +226,121 @@
     <t>Characterization of Behavioral Disorders and 24 H-melatonin Level in Adults With Smith Magenis Syndrome</t>
   </si>
   <si>
-    <t>ACCeptation and Qualitative Evaluation of Phone-delivered Intervention To Prevent Suicide Reattempt</t>
+    <t>Effects of Emotion on Episodic Memory in Typically Developing Children and Children With Williams-Beuren Syndrome</t>
   </si>
   <si>
     <t>Translational 22q11.2:"Molecular Variants Associated With Schizophrenia: Differential Analysis of Monozygotic Twins With Variable Phenotypic 22q11.2 Microdeletional Syndrom"</t>
   </si>
   <si>
-    <t>Effects of Emotion on Episodic Memory in Typically Developing Children and Children With Williams-Beuren Syndrome</t>
-  </si>
-  <si>
     <t>Representations, Strategies and Identity Redefinition in the Recovery Process: Exploratory Study</t>
   </si>
   <si>
+    <t>Impact of Transcranial Direct Current Stimulation on Emotional Processing in Major Depression</t>
+  </si>
+  <si>
     <t>Basic Auditory Processing and Acoustico-verbal Hallucinations: a Pathophysiological Study</t>
   </si>
   <si>
     <t>Impact of Early Intervention on the Global Development of Children With Autism Spectrum Disorder in a European French-speaking Population Dr Marie-Maude GEOFFRAY Le Vinatier Hospital</t>
   </si>
   <si>
+    <t>Preliminary Validation of the RC2S+ Therapy in Schizophrenia</t>
+  </si>
+  <si>
     <t>Social Cognitive Assessment in Psychiatry - Validation of a New Battery: ClaCoS</t>
   </si>
   <si>
-    <t>Preliminary Validation of the RC2S+ Therapy in Schizophrenia</t>
-  </si>
-  <si>
     <t>Describing, Detecting and Orienting Adults Without Intellectual Disability Asking for an Autism Spectrum Disorder Diagnosis</t>
   </si>
   <si>
-    <t>Impact of Transcranial Direct Current Stimulation on Emotional Processing in Major Depression</t>
-  </si>
-  <si>
     <t>SURAYA : Suicide Re Attempts in Young Adults After First Suicide Attempt : Socio-demographic, Clinical and Biological Correlates</t>
   </si>
   <si>
     <t>Liver Status in Psychiatric Inpatients</t>
   </si>
   <si>
+    <t>Long-term Efficacy of Early Intervention With Early Start Denver Model (ESDM) on the Severity of Autism</t>
+  </si>
+  <si>
     <t>Pilot Evaluation of a New Computerized Test for Pragmatic Inferences in Children with Autism Spectrum Disorder Aged 8-12 Years Old</t>
   </si>
   <si>
     <t>Effects of Transcranial Direct Current Stimulation on Stress Reactivity and Decision Making in Unaffected Siblings of Patients With Schizophrenia</t>
   </si>
   <si>
+    <t>Investigating Stress-Induced Dopamine Release: a fMRI-PET Study</t>
+  </si>
+  <si>
+    <t>Early Screening of Autism Spectrum Disorder in General and Pediatric Practices, Nurseries and Early Child Care Centers, Using Parent Questionnaires and Guidance for Addressing the Child</t>
+  </si>
+  <si>
+    <t>inhibistim</t>
+  </si>
+  <si>
     <t>DOPA-STIM</t>
   </si>
   <si>
-    <t>inhibistim</t>
-  </si>
-  <si>
     <t>DEPLAS</t>
   </si>
   <si>
     <t>RemedRehab</t>
   </si>
   <si>
+    <t>ACCEPT-S</t>
+  </si>
+  <si>
     <t>SCIT-VF</t>
   </si>
   <si>
     <t>SMS-adults</t>
   </si>
   <si>
-    <t>ACCEPT-S</t>
+    <t>EEM-TAdev</t>
   </si>
   <si>
     <t>CSRK05</t>
   </si>
   <si>
-    <t>EEM-TAdev</t>
-  </si>
-  <si>
     <t>EPR</t>
   </si>
   <si>
+    <t>EmoStim</t>
+  </si>
+  <si>
     <t>AUDISCHIZ</t>
   </si>
   <si>
     <t>IDEA</t>
   </si>
   <si>
+    <t>RC2S+</t>
+  </si>
+  <si>
     <t>(ClaCoS)</t>
   </si>
   <si>
-    <t>RC2S+</t>
-  </si>
-  <si>
     <t>ASSORT</t>
   </si>
   <si>
-    <t>EmoStim</t>
-  </si>
-  <si>
     <t>SURAYA</t>
   </si>
   <si>
     <t>LIVERSPIN</t>
   </si>
   <si>
+    <t>IDEA2SCOLA</t>
+  </si>
+  <si>
     <t>TIPI</t>
   </si>
   <si>
     <t>3S</t>
+  </si>
+  <si>
+    <t>ISIDORE</t>
+  </si>
+  <si>
+    <t>KitCAT</t>
   </si>
   <si>
     <t>BEHAVIORAL</t>
@@ -689,7 +719,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -735,13 +765,13 @@
         <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="I2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -755,13 +785,13 @@
         <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="I3" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -775,13 +805,13 @@
         <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G4" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="I4" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -795,36 +825,33 @@
         <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G5" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I5" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
         <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G6" t="s">
-        <v>57</v>
-      </c>
-      <c r="H6" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="I6" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -838,82 +865,82 @@
         <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="I7" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
         <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G8" t="s">
-        <v>59</v>
+        <v>63</v>
+      </c>
+      <c r="H8" t="s">
+        <v>87</v>
       </c>
       <c r="I8" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
         <v>24</v>
       </c>
       <c r="F9" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G9" t="s">
-        <v>60</v>
-      </c>
-      <c r="H9" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="I9" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
         <v>25</v>
       </c>
       <c r="F10" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G10" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="H10" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="I10" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -927,13 +954,16 @@
         <v>26</v>
       </c>
       <c r="F11" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G11" t="s">
-        <v>62</v>
+        <v>66</v>
+      </c>
+      <c r="H11" t="s">
+        <v>89</v>
       </c>
       <c r="I11" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -947,16 +977,16 @@
         <v>27</v>
       </c>
       <c r="F12" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G12" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="H12" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="I12" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -970,16 +1000,16 @@
         <v>28</v>
       </c>
       <c r="F13" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G13" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="H13" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="I13" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -993,16 +1023,16 @@
         <v>29</v>
       </c>
       <c r="F14" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G14" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="H14" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="I14" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1016,16 +1046,16 @@
         <v>30</v>
       </c>
       <c r="F15" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G15" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="H15" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="I15" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1039,16 +1069,16 @@
         <v>31</v>
       </c>
       <c r="F16" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G16" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H16" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="I16" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1062,16 +1092,16 @@
         <v>32</v>
       </c>
       <c r="F17" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G17" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H17" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="I17" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1085,62 +1115,62 @@
         <v>33</v>
       </c>
       <c r="F18" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G18" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="H18" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="I18" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C19" t="s">
         <v>34</v>
       </c>
       <c r="F19" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G19" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H19" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="I19" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C20" t="s">
         <v>35</v>
       </c>
       <c r="F20" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G20" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H20" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="I20" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1154,16 +1184,16 @@
         <v>36</v>
       </c>
       <c r="F21" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G21" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H21" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="I21" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1177,16 +1207,16 @@
         <v>37</v>
       </c>
       <c r="F22" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G22" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H22" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="I22" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1200,16 +1230,16 @@
         <v>38</v>
       </c>
       <c r="F23" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G23" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H23" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="I23" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1223,16 +1253,16 @@
         <v>39</v>
       </c>
       <c r="F24" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G24" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H24" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="I24" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1246,16 +1276,16 @@
         <v>40</v>
       </c>
       <c r="F25" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G25" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H25" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="I25" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1269,16 +1299,16 @@
         <v>41</v>
       </c>
       <c r="F26" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G26" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H26" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="I26" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1292,16 +1322,85 @@
         <v>42</v>
       </c>
       <c r="F27" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G27" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H27" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="I27" t="s">
-        <v>101</v>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>55</v>
+      </c>
+      <c r="G28" t="s">
+        <v>83</v>
+      </c>
+      <c r="H28" t="s">
+        <v>106</v>
+      </c>
+      <c r="I28" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>56</v>
+      </c>
+      <c r="G29" t="s">
+        <v>84</v>
+      </c>
+      <c r="H29" t="s">
+        <v>107</v>
+      </c>
+      <c r="I29" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" t="s">
+        <v>45</v>
+      </c>
+      <c r="F30" t="s">
+        <v>56</v>
+      </c>
+      <c r="G30" t="s">
+        <v>85</v>
+      </c>
+      <c r="H30" t="s">
+        <v>108</v>
+      </c>
+      <c r="I30" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
